--- a/analisis/resultados/comparacion_paises/metadata_paises.xlsx
+++ b/analisis/resultados/comparacion_paises/metadata_paises.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Archivos\repos\hidrocarburos\analisis\resultados\comparacion_paises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565E3757-F8C5-4106-B606-49CAEBEACB5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1E44F1-A521-4B2B-82E6-1236EF2C9089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1665" yWindow="2355" windowWidth="20910" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="indice" sheetId="2" r:id="rId1"/>
+    <sheet name="variables" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="41">
   <si>
     <t>anio</t>
   </si>
@@ -31,12 +32,6 @@
     <t>pais</t>
   </si>
   <si>
-    <t>renta_pv</t>
-  </si>
-  <si>
-    <t>renta_pbi</t>
-  </si>
-  <si>
     <t>metodo</t>
   </si>
   <si>
@@ -49,12 +44,6 @@
     <t>valor_tc</t>
   </si>
   <si>
-    <t>tipo_renta</t>
-  </si>
-  <si>
-    <t>valor_renta</t>
-  </si>
-  <si>
     <t>variable</t>
   </si>
   <si>
@@ -119,6 +108,42 @@
   </si>
   <si>
     <t>Valor del tipo de renta de la tierra observada</t>
+  </si>
+  <si>
+    <t>RTPG_vs_pv</t>
+  </si>
+  <si>
+    <t>RTPG_vs_pbi</t>
+  </si>
+  <si>
+    <t>tipo_RTPG</t>
+  </si>
+  <si>
+    <t>valor_RTPG</t>
+  </si>
+  <si>
+    <t>hoja</t>
+  </si>
+  <si>
+    <t>RTPG_total</t>
+  </si>
+  <si>
+    <t>RTPG_vs_pbi_pv</t>
+  </si>
+  <si>
+    <t>RTPG_vs_banco_mundial</t>
+  </si>
+  <si>
+    <t>RTPG_mecanismos</t>
+  </si>
+  <si>
+    <t>Renta de la tierra del petróleo y el gas total por pais valuada con tipo de cambio comercial y de paridad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renta de la tierra del petróleo y gas total sobre PBI y plusvalía total de la economia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comparacion entre estimacion propia y del Banco Mundial de renta de la tierra del petróleo y gas total sobre PBI </t>
   </si>
 </sst>
 </file>
@@ -504,33 +529,99 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C53A661-A041-472C-B05D-EA39AF763C5D}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="176" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD16"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
     <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -538,13 +629,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -552,13 +643,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -566,152 +657,152 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/analisis/resultados/comparacion_paises/metadata_paises.xlsx
+++ b/analisis/resultados/comparacion_paises/metadata_paises.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Archivos\repos\hidrocarburos\analisis\resultados\comparacion_paises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1E44F1-A521-4B2B-82E6-1236EF2C9089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7666CA-32F1-4C73-A677-CAC4944EE9F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="indice" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="47">
   <si>
     <t>anio</t>
   </si>
@@ -144,6 +144,24 @@
   </si>
   <si>
     <t xml:space="preserve">Comparacion entre estimacion propia y del Banco Mundial de renta de la tierra del petróleo y gas total sobre PBI </t>
+  </si>
+  <si>
+    <t>costos</t>
+  </si>
+  <si>
+    <t>Costos por barril y precios de producción</t>
+  </si>
+  <si>
+    <t>valor_costo</t>
+  </si>
+  <si>
+    <t>Valor del tipo de costo</t>
+  </si>
+  <si>
+    <t>tipo_costo</t>
+  </si>
+  <si>
+    <t>Tipo de costo ("Balances" refiere a YPF en Argentina, PDVSA en Venezuela y Petrobras en Brasil)</t>
   </si>
 </sst>
 </file>
@@ -530,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C53A661-A041-472C-B05D-EA39AF763C5D}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A7" sqref="A7:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,6 +607,14 @@
         <v>18</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -596,10 +622,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="176" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="176" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -805,6 +831,22 @@
         <v>24</v>
       </c>
     </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
